--- a/data/trans_orig/FIN_TABACO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/FIN_TABACO-Edad-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -549,32 +549,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>20,89</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>19,18</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>19,87</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>19,83</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>20,21</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>19,6</t>
         </is>
       </c>
     </row>
@@ -639,39 +639,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,83; 21,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,0; 20,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,88; 21,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,65; 21,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,7; 21,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,62; 20,75</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -681,32 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>24,92</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>26,21</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>25,29</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>24,29</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>25,11</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>25,22</t>
         </is>
       </c>
     </row>
@@ -719,39 +719,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,49; 27,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,47; 28,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,61; 27,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,98; 26,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,3; 26,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,69; 26,53</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>31,64</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>32,07</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>32,6</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>31,95</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>32,13</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>32,01</t>
         </is>
       </c>
     </row>
@@ -799,39 +799,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,71; 33,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,03; 33,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,92; 33,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,18; 33,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,84; 33,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,7; 33,25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,57</t>
+          <t>46,88</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,85</t>
+          <t>39,91</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20,08</t>
+          <t>37,58</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,04</t>
+          <t>36,35</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,9</t>
+          <t>45,57</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,98</t>
+          <t>38,28</t>
         </is>
       </c>
     </row>
@@ -879,39 +879,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,0; 20,61</t>
+          <t>38,59; 48,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,0; 20,91</t>
+          <t>38,07; 41,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,68; 21,74</t>
+          <t>35,49; 39,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,55; 21,48</t>
+          <t>34,08; 38,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,94; 21,19</t>
+          <t>38,16; 48,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,12; 21,09</t>
+          <t>36,74; 39,86</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -921,32 +921,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>26,31</t>
+          <t>43,82</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>25,99</t>
+          <t>41,29</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>23,86</t>
+          <t>44,68</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>25,07</t>
+          <t>44,24</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>25,05</t>
+          <t>44,14</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>25,4</t>
+          <t>42,7</t>
         </is>
       </c>
     </row>
@@ -959,39 +959,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,28; 28,24</t>
+          <t>41,56; 45,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>22,96; 28,12</t>
+          <t>38,98; 43,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>21,77; 25,54</t>
+          <t>42,16; 46,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>23,38; 26,55</t>
+          <t>41,91; 46,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,74; 26,52</t>
+          <t>42,54; 45,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,86; 26,68</t>
+          <t>40,93; 44,31</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1001,32 +1001,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>31,99</t>
+          <t>49,18</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>32,07</t>
+          <t>49,09</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>32,13</t>
+          <t>48,42</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>33,05</t>
+          <t>51,93</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>32,06</t>
+          <t>48,96</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>32,6</t>
+          <t>49,85</t>
         </is>
       </c>
     </row>
@@ -1039,39 +1039,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>29,8; 33,55</t>
+          <t>46,86; 51,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>30,14; 33,78</t>
+          <t>47,31; 51,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>30,26; 33,92</t>
+          <t>42,19; 51,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>31,45; 34,4</t>
+          <t>47,88; 54,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>30,79; 33,25</t>
+          <t>46,45; 50,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>31,46; 33,59</t>
+          <t>48,28; 51,53</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1081,32 +1081,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>40,07</t>
+          <t>55,15</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>42,46</t>
+          <t>55,23</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>36,28</t>
+          <t>54,38</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>37,04</t>
+          <t>51,9</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>38,3</t>
+          <t>55,01</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>40,46</t>
+          <t>54,87</t>
         </is>
       </c>
     </row>
@@ -1119,39 +1119,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>38,17; 41,62</t>
+          <t>52,81; 57,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>38,82; 46,63</t>
+          <t>52,97; 57,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>34,08; 38,61</t>
+          <t>48,77; 59,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>35,48; 38,71</t>
+          <t>42,52; 59,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>36,82; 39,83</t>
+          <t>52,56; 57,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>37,93; 44,85</t>
+          <t>52,58; 57,03</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1161,32 +1161,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>41,49</t>
+          <t>46,13</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>44,32</t>
+          <t>43,74</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>44,49</t>
+          <t>39,73</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>45,06</t>
+          <t>39,33</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>42,96</t>
+          <t>44,47</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>44,59</t>
+          <t>42,02</t>
         </is>
       </c>
     </row>
@@ -1199,293 +1199,50 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>39,31; 43,8</t>
+          <t>43,89; 48,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>42,73; 45,77</t>
+          <t>42,52; 44,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>42,08; 46,61</t>
+          <t>38,09; 41,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>43,16; 46,83</t>
+          <t>37,76; 40,91</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>41,27; 44,58</t>
+          <t>42,16; 47,39</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>43,34; 45,72</t>
+          <t>41,03; 42,95</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>48,98</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>50,85</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>52,04</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>48,84</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>49,65</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>50,39</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>47,13; 50,97</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>49,13; 52,45</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>48,56; 55,03</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>44,56; 52,23</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>48,05; 51,2</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>48,81; 51,74</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>55,28</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>55,55</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>53,72</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>54,8</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>55,14</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>55,46</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>53,03; 57,38</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>53,79; 57,43</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>45,34; 60,6</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>49,82; 59,74</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>53,01; 57,16</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>53,59; 57,12</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>46,28</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>45,91</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>40,69</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>39,15</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>44,43</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>43,6</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>45,01; 47,49</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>44,82; 46,94</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>39,04; 42,25</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>37,81; 40,31</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>43,35; 45,36</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>42,76; 44,55</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_orig/FIN_TABACO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/FIN_TABACO-Edad-trans_orig.xlsx
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Edad media en la que dejaron de fumar tabaco en años</t>
+          <t>Edad media en la que dejaron de fumar tabaco en años (tasa de respuesta: 97,57%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/FIN_TABACO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/FIN_TABACO-Edad-trans_orig.xlsx
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,88; 21,51</t>
+          <t>16,92; 21,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,7; 21,31</t>
+          <t>17,59; 21,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,49; 27,34</t>
+          <t>21,65; 27,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,61; 27,55</t>
+          <t>22,68; 27,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,3; 26,91</t>
+          <t>23,16; 26,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>29,71; 33,55</t>
+          <t>29,47; 33,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,92; 33,99</t>
+          <t>30,86; 34,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,84; 33,4</t>
+          <t>30,87; 33,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>38,59; 48,61</t>
+          <t>38,78; 48,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>35,49; 39,62</t>
+          <t>35,58; 39,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>38,16; 48,25</t>
+          <t>38,14; 48,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>41,56; 45,96</t>
+          <t>41,61; 45,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>42,16; 46,79</t>
+          <t>42,4; 46,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>42,54; 45,7</t>
+          <t>42,48; 45,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>46,86; 51,19</t>
+          <t>46,91; 51,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>42,19; 51,73</t>
+          <t>42,63; 52,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>46,45; 50,75</t>
+          <t>46,84; 50,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>52,81; 57,83</t>
+          <t>52,59; 57,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>48,77; 59,37</t>
+          <t>48,95; 59,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>52,56; 57,16</t>
+          <t>52,64; 57,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>43,89; 48,13</t>
+          <t>43,75; 48,06</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>38,09; 41,3</t>
+          <t>38,14; 41,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>42,16; 47,39</t>
+          <t>42,13; 47,11</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">

--- a/data/trans_orig/FIN_TABACO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/FIN_TABACO-Edad-trans_orig.xlsx
@@ -611,7 +611,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,87</t>
+          <t>20,18</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,21</t>
+          <t>20,37</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,92; 21,63</t>
+          <t>17,73; 21,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,59; 21,23</t>
+          <t>18,03; 21,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -681,19 +681,19 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>25,51</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>26,21</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>24,92</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>26,21</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>25,29</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
           <t>24,29</t>
@@ -701,7 +701,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>25,11</t>
+          <t>25,23</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,65; 27,62</t>
+          <t>22,88; 27,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,68; 27,52</t>
+          <t>22,71; 27,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,16; 26,85</t>
+          <t>23,4; 26,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>31,64</t>
+          <t>31,79</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>32,6</t>
+          <t>32,68</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>32,13</t>
+          <t>32,23</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>29,47; 33,53</t>
+          <t>29,77; 33,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,86; 34,05</t>
+          <t>31,01; 34,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,87; 33,39</t>
+          <t>31,05; 33,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>46,88</t>
+          <t>38,78</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>37,58</t>
+          <t>37,89</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>45,57</t>
+          <t>38,41</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>38,78; 48,6</t>
+          <t>36,76; 40,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>35,58; 39,71</t>
+          <t>35,92; 40,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>38,14; 48,23</t>
+          <t>36,97; 39,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>43,82</t>
+          <t>44,08</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>44,68</t>
+          <t>44,43</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>44,14</t>
+          <t>44,21</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>41,61; 45,9</t>
+          <t>41,91; 46,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>42,4; 46,97</t>
+          <t>42,17; 46,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>42,48; 45,84</t>
+          <t>42,65; 45,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>49,18</t>
+          <t>49,4</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>48,42</t>
+          <t>49,59</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>48,96</t>
+          <t>49,46</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>46,91; 51,2</t>
+          <t>47,26; 51,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>42,63; 52,11</t>
+          <t>46,2; 52,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>46,84; 50,81</t>
+          <t>47,62; 51,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>55,15</t>
+          <t>55,13</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>54,38</t>
+          <t>54,82</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>55,01</t>
+          <t>55,07</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>52,59; 57,81</t>
+          <t>52,55; 57,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>48,95; 59,07</t>
+          <t>49,09; 59,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>52,64; 57,41</t>
+          <t>52,67; 57,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>46,13</t>
+          <t>44,09</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>39,73</t>
+          <t>39,81</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>44,47</t>
+          <t>42,52</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>43,75; 48,06</t>
+          <t>42,72; 45,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>38,14; 41,42</t>
+          <t>38,31; 41,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>42,13; 47,11</t>
+          <t>41,47; 43,56</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
